--- a/biology/Zoologie/Cormoran_impérial/Cormoran_impérial.xlsx
+++ b/biology/Zoologie/Cormoran_impérial/Cormoran_impérial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cormoran_imp%C3%A9rial</t>
+          <t>Cormoran_impérial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucocarbo atriceps
 Le Cormoran impérial (Leucocarbo atriceps) est une espèce d'oiseaux de mer de la famille des Phalacrocoracidae qui habitent les régions australes, de la Patagonie à la péninsule Antarctique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cormoran_imp%C3%A9rial</t>
+          <t>Cormoran_impérial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une famille d'oiseaux très reconnaissable. Il mesure de 68 à 76 cm avec une envergure de 124 cm. Le Cormoran impérial possède un dos noir, et toute sa partie ventrale jusqu'à son cou et sa tête (partie inférieure seulement) sont d'une couleur blanche. Il a la particularité de posséder le contour de ses yeux d'une couleur bleue bien marquée. C'est pourquoi l'erreur est de croire qu'il a les yeux bleus ! On remarquera une pointe de couleur rouge sur le côté de l'œil (côté bec). Sa crête est d'un plumage noir. Ses pieds sont bien palmés ce qui en fait un très bon nageur véloce.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cormoran_imp%C3%A9rial</t>
+          <t>Cormoran_impérial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'observe en solitaire mais principalement en couple ou en groupe (colonie). Son comportement en vol est très caractéristique. En effet il bat très vivement de ses ailes ce qui étonne souvent pour un oiseau marin. Il est vrai qu'il n'est pas bon en vol mais bien meilleur sur et dans l'eau. Il plonge et nage sous l'eau très souvent et très longtemps. Sa vitesse est très véloce et parvient souvent à sa proie. Il est très actif (recherche d'aliments, construction du nid...) et quitte souvent sa niché tout au long de la journée et y revient pour dormir. Son alimentation est composée de poissons et de crustacés. Il peut pêcher seul ou en groupe surtout lorsqu'il s'agit de bancs d'anchois.
 Il construit son nid avec les éléments trouvés sur place bien souvent des algues et des petites pierres. Comme les nids sont rapprochés, il n'est pas rare de les voir se chaparder les éléments du nid des uns aux autres.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cormoran_imp%C3%A9rial</t>
+          <t>Cormoran_impérial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-On observe cette espèce jusqu'en Terre de Feu, les Malouines et également en péninsule Antarctique. La population estimée en 1996 sur toute la côte de la Patagonie argentine est de 40 000 couples (P. Yonió). À Punta Combo, dans la province de Chubut, la population est passée de 3 000 à 800 individus en 10 ans. Les causes furent corrélées avec l'évolution touristique en cette région et aussi par la saison touristique en plein nidification et incubation (Conway &amp; Harris).
-Habitat
-Le Cormoran impérial vit sur les pointes rocheuses de la côte, les îlots, les îles, les anciennes infrastructures maritimes (pontons, épaves de bateaux...). Il s'observe en compagnie d'autres colonies telles les colonies d'albatros, de manchots voire d'otaries à crinière.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On observe cette espèce jusqu'en Terre de Feu, les Malouines et également en péninsule Antarctique. La population estimée en 1996 sur toute la côte de la Patagonie argentine est de 40 000 couples (P. Yonió). À Punta Combo, dans la province de Chubut, la population est passée de 3 000 à 800 individus en 10 ans. Les causes furent corrélées avec l'évolution touristique en cette région et aussi par la saison touristique en plein nidification et incubation (Conway &amp; Harris).
 </t>
         </is>
       </c>
@@ -592,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cormoran_imp%C3%A9rial</t>
+          <t>Cormoran_impérial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,15 +626,54 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cormoran impérial vit sur les pointes rocheuses de la côte, les îlots, les îles, les anciennes infrastructures maritimes (pontons, épaves de bateaux...). Il s'observe en compagnie d'autres colonies telles les colonies d'albatros, de manchots voire d'otaries à crinière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cormoran_impérial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cormoran_imp%C3%A9rial</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification du Congrès ornithologique international (version 13.1, 2023) considère actuellement qu'il existe deux sous-espèces du Cormoran impérial[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification du Congrès ornithologique international (version 13.1, 2023) considère actuellement qu'il existe deux sous-espèces du Cormoran impérial :
 Leucocarbo atriceps atriceps  (King, 1828) : la sous-espèce nominale. Vit dans le sud du Chili et de l'Argentine, jusqu'au Cap Horn.
 Leucocarbo atriceps albiventer (Lesson, 1831) : VIt dans les Îles Malouines. Diffère de atriceps par son patron facial : joues noires pour albiventer. Parfois dénommé Cormoran à ventre blanc.
-La classification précise du genre Leucocarbo est fortement sujette à débat, faute d'étude claire sur le sujet. Le COI et Clements font le choix de ne conserver que deux sous-espèces d'atriceps, et de considérer le Cormoran antarctique (L. bransfieldensis), le Cormoran géorgien (L. georgianus),Cormoran de Heard (L. nivalis), le Cormoran de Crozet (L. melanogenis) et le Cormoran de Macquarie (L. purpurascens) comme des espèces à part entière[1],[2], tandis que HBW (version 7.0, décembre 2022) considère qu'elles constituent toutes des sous-espèces du Cormoran impérial[3].
+La classification précise du genre Leucocarbo est fortement sujette à débat, faute d'étude claire sur le sujet. Le COI et Clements font le choix de ne conserver que deux sous-espèces d'atriceps, et de considérer le Cormoran antarctique (L. bransfieldensis), le Cormoran géorgien (L. georgianus),Cormoran de Heard (L. nivalis), le Cormoran de Crozet (L. melanogenis) et le Cormoran de Macquarie (L. purpurascens) comme des espèces à part entière tandis que HBW (version 7.0, décembre 2022) considère qu'elles constituent toutes des sous-espèces du Cormoran impérial.
 </t>
         </is>
       </c>
